--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2250.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2250.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213676045206884</v>
+        <v>1.173013210296631</v>
       </c>
       <c r="B1">
-        <v>2.370581630054495</v>
+        <v>2.640596389770508</v>
       </c>
       <c r="C1">
-        <v>7.25732458923864</v>
+        <v>5.809912204742432</v>
       </c>
       <c r="D1">
-        <v>2.366500033210414</v>
+        <v>2.098309516906738</v>
       </c>
       <c r="E1">
-        <v>1.166639828202798</v>
+        <v>1.208070635795593</v>
       </c>
     </row>
   </sheetData>
